--- a/biology/Zoologie/Hypermnestra_helios/Hypermnestra_helios.xlsx
+++ b/biology/Zoologie/Hypermnestra_helios/Hypermnestra_helios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypermnestra helios est une espèce de lépidoptères (papillons) de la famille des Papilionidae, originaire d'Asie centrale. Elle est l'unique représentante du genre monotypique Hypermnestra.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypermnestra helios se nomme Desert Apollo en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypermnestra helios se nomme Desert Apollo en anglais.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d'Hypermnestra helios est un papillon de couleur blanc crème ; ses ailes antérieures sont ornées de marques noires à l'apex, de taches rouges cerclées de noir à l'extrémité de la cellule, et de taches noires dans la cellule.
 </t>
@@ -573,10 +589,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Zygophyllum, notamment Z. atriplicoides, Z. fabago, Z. gontsharovi, Z. oxianum, Z. macrophyllum, Z. portulacoides et Z. turcomanicum[1],[2].
-Le papillon vole de mars à juin[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Zygophyllum, notamment Z. atriplicoides, Z. fabago, Z. gontsharovi, Z. oxianum, Z. macrophyllum, Z. portulacoides et Z. turcomanicum,.
+Le papillon vole de mars à juin.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Iran, en Afghanistan, au Pakistan, au Turkménistan, au Kirghizstan, au Tadjikistan et en Ouzbékistan[2].
-Elle se rencontre dans des zones désertiques ou semi-désertiques[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Iran, en Afghanistan, au Pakistan, au Turkménistan, au Kirghizstan, au Tadjikistan et en Ouzbékistan.
+Elle se rencontre dans des zones désertiques ou semi-désertiques,.
 </t>
         </is>
       </c>
@@ -637,11 +657,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce Hypermnestra helios a été décrite par l'entomologiste tchèque František Antonín Nickerl (en) en 1846, sous le nom initial d'Ismene helios[1].
-Elle est l'espèce type et l'unique espèce du genre monotypique Hypermnestra, décrit par le zoologiste français Édouard Ménétries en 1848[1]. 
-Plusieurs sous-espèces ont été décrites[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce Hypermnestra helios a été décrite par l'entomologiste tchèque František Antonín Nickerl (en) en 1846, sous le nom initial d'Ismene helios.
+Elle est l'espèce type et l'unique espèce du genre monotypique Hypermnestra, décrit par le zoologiste français Édouard Ménétries en 1848. 
+Plusieurs sous-espèces ont été décrites :
 Hypermnestra helios helios (Nickerl, 1846)
 Hypermnestra helios persica Neuburger, 1900
 Hypermnestra helios maxima Grum-Grshimailo, 1890
